--- a/Code/Results/Cases/Case_5_118/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_118/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9814323265992186</v>
+        <v>1.770638372978055</v>
       </c>
       <c r="C2">
-        <v>0.05662153706686723</v>
+        <v>0.01311926495731797</v>
       </c>
       <c r="D2">
-        <v>0.1191762311484155</v>
+        <v>0.03223974428588861</v>
       </c>
       <c r="E2">
-        <v>0.01725228842271376</v>
+        <v>0.06383820745116875</v>
       </c>
       <c r="F2">
-        <v>7.993232552691978</v>
+        <v>7.662150779775487</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1904116356516354</v>
+        <v>0.2588048803500271</v>
       </c>
       <c r="K2">
-        <v>0.8063436306698861</v>
+        <v>1.236897356269907</v>
       </c>
       <c r="L2">
-        <v>0.05664783728241929</v>
+        <v>0.2246228339346352</v>
       </c>
       <c r="M2">
-        <v>0.163796820206457</v>
+        <v>0.3682373811667894</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8921592152436517</v>
+        <v>1.768299610546876</v>
       </c>
       <c r="C3">
-        <v>0.04856511882880454</v>
+        <v>0.01138622289478519</v>
       </c>
       <c r="D3">
-        <v>0.1055151626325497</v>
+        <v>0.02831459372016809</v>
       </c>
       <c r="E3">
-        <v>0.01756474225993276</v>
+        <v>0.06421076739112808</v>
       </c>
       <c r="F3">
-        <v>7.353557743527602</v>
+        <v>7.468097427213934</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1810877224084564</v>
+        <v>0.2557179444048998</v>
       </c>
       <c r="K3">
-        <v>0.7202130274489491</v>
+        <v>1.231879661895604</v>
       </c>
       <c r="L3">
-        <v>0.05563778392200192</v>
+        <v>0.226917329774956</v>
       </c>
       <c r="M3">
-        <v>0.1513244560208875</v>
+        <v>0.3693921511879665</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8396077783807527</v>
+        <v>1.768133792704674</v>
       </c>
       <c r="C4">
-        <v>0.04373146348746104</v>
+        <v>0.01033676375431725</v>
       </c>
       <c r="D4">
-        <v>0.09721483957753208</v>
+        <v>0.02589476758429043</v>
       </c>
       <c r="E4">
-        <v>0.01777143385662727</v>
+        <v>0.06445473036807403</v>
       </c>
       <c r="F4">
-        <v>6.966605590566758</v>
+        <v>7.349342984866212</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1754381574587569</v>
+        <v>0.2538144995236209</v>
       </c>
       <c r="K4">
-        <v>0.6693365447844428</v>
+        <v>1.229838432415775</v>
       </c>
       <c r="L4">
-        <v>0.05518146322097905</v>
+        <v>0.2284582534633905</v>
       </c>
       <c r="M4">
-        <v>0.1440718240125527</v>
+        <v>0.3703540916250638</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8187174397167496</v>
+        <v>1.768385646666701</v>
       </c>
       <c r="C5">
-        <v>0.04178561968515737</v>
+        <v>0.0099126790523556</v>
       </c>
       <c r="D5">
-        <v>0.09384968842157093</v>
+        <v>0.02490607137514189</v>
       </c>
       <c r="E5">
-        <v>0.0178593878090183</v>
+        <v>0.06455798277131741</v>
       </c>
       <c r="F5">
-        <v>6.81018559433258</v>
+        <v>7.301045931886136</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.173151904565465</v>
+        <v>0.2530367374713052</v>
       </c>
       <c r="K5">
-        <v>0.6490653199365397</v>
+        <v>1.229267871343922</v>
       </c>
       <c r="L5">
-        <v>0.05503484849815976</v>
+        <v>0.2291194510684456</v>
       </c>
       <c r="M5">
-        <v>0.1412112115676543</v>
+        <v>0.3708097158614052</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8152790872943285</v>
+        <v>1.768446760421824</v>
       </c>
       <c r="C6">
-        <v>0.04146383325979741</v>
+        <v>0.009842473273252494</v>
       </c>
       <c r="D6">
-        <v>0.09329182043672546</v>
+        <v>0.02474173811978631</v>
       </c>
       <c r="E6">
-        <v>0.01787421732342498</v>
+        <v>0.06457535973083672</v>
       </c>
       <c r="F6">
-        <v>6.784283222786229</v>
+        <v>7.293031974943716</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1727731575436238</v>
+        <v>0.2529074623056289</v>
       </c>
       <c r="K6">
-        <v>0.6457259553528019</v>
+        <v>1.229188904547087</v>
       </c>
       <c r="L6">
-        <v>0.05501282765746396</v>
+        <v>0.2292312524360227</v>
       </c>
       <c r="M6">
-        <v>0.1407417447301285</v>
+        <v>0.3708892156880026</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8393239748659482</v>
+        <v>1.768135895918107</v>
       </c>
       <c r="C7">
-        <v>0.04370513003088661</v>
+        <v>0.01033103004533586</v>
       </c>
       <c r="D7">
-        <v>0.09716939194400709</v>
+        <v>0.02588144438298912</v>
       </c>
       <c r="E7">
-        <v>0.0177726049583975</v>
+        <v>0.06445610732184548</v>
       </c>
       <c r="F7">
-        <v>6.964491176267813</v>
+        <v>7.348691247812241</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.17540726325511</v>
+        <v>0.2538040189134847</v>
       </c>
       <c r="K7">
-        <v>0.669061346998447</v>
+        <v>1.22982968004176</v>
       </c>
       <c r="L7">
-        <v>0.05517932898990452</v>
+        <v>0.2284670358859771</v>
       </c>
       <c r="M7">
-        <v>0.1440328694882602</v>
+        <v>0.3703599786753315</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9501536133203103</v>
+        <v>1.769568343775376</v>
       </c>
       <c r="C8">
-        <v>0.05381738833537497</v>
+        <v>0.01251861243860475</v>
       </c>
       <c r="D8">
-        <v>0.1144447420481498</v>
+        <v>0.03088829371068869</v>
       </c>
       <c r="E8">
-        <v>0.01735693696558815</v>
+        <v>0.06396351591002958</v>
       </c>
       <c r="F8">
-        <v>7.771344376341005</v>
+        <v>7.595157307588408</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1871792560428034</v>
+        <v>0.2577421348041753</v>
       </c>
       <c r="K8">
-        <v>0.7762016349632574</v>
+        <v>1.234951360355609</v>
       </c>
       <c r="L8">
-        <v>0.05626439132532113</v>
+        <v>0.2253865852762011</v>
       </c>
       <c r="M8">
-        <v>0.1594077623376258</v>
+        <v>0.3685830714677429</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.187646321188794</v>
+        <v>1.782458746692697</v>
       </c>
       <c r="C9">
-        <v>0.07477026742204629</v>
+        <v>0.01692939683639594</v>
       </c>
       <c r="D9">
-        <v>0.1492513313224606</v>
+        <v>0.04063595127169606</v>
       </c>
       <c r="E9">
-        <v>0.01665999551202324</v>
+        <v>0.06311773911261653</v>
       </c>
       <c r="F9">
-        <v>9.40938049910352</v>
+        <v>8.081771553619461</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2110089282654286</v>
+        <v>0.2654042491397917</v>
       </c>
       <c r="K9">
-        <v>1.004412916803489</v>
+        <v>1.25325567135198</v>
       </c>
       <c r="L9">
-        <v>0.05978534344619391</v>
+        <v>0.2203921392918602</v>
       </c>
       <c r="M9">
-        <v>0.1931272562087507</v>
+        <v>0.3671045329616156</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.37785212317678</v>
+        <v>1.798085353570116</v>
       </c>
       <c r="C10">
-        <v>0.0912031719385169</v>
+        <v>0.02025071311219051</v>
       </c>
       <c r="D10">
-        <v>0.1757521926616619</v>
+        <v>0.04776429543568383</v>
       </c>
       <c r="E10">
-        <v>0.01622070840503209</v>
+        <v>0.0625689500965958</v>
       </c>
       <c r="F10">
-        <v>10.66188314611125</v>
+        <v>8.441552870573929</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2291981958701754</v>
+        <v>0.2710018749576903</v>
       </c>
       <c r="K10">
-        <v>1.186513746504971</v>
+        <v>1.27176111505571</v>
       </c>
       <c r="L10">
-        <v>0.06336655223066145</v>
+        <v>0.2173582705301769</v>
       </c>
       <c r="M10">
-        <v>0.220625880525759</v>
+        <v>0.367241047455952</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.468674245411819</v>
+        <v>1.806533849416496</v>
       </c>
       <c r="C11">
-        <v>0.09899629136496912</v>
+        <v>0.02178072871079451</v>
       </c>
       <c r="D11">
-        <v>0.1881012032836509</v>
+        <v>0.05100210241059244</v>
       </c>
       <c r="E11">
-        <v>0.01603687135415033</v>
+        <v>0.06233491532618096</v>
       </c>
       <c r="F11">
-        <v>11.24613760731256</v>
+        <v>8.60577662053413</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2376787027892178</v>
+        <v>0.2735426346901448</v>
       </c>
       <c r="K11">
-        <v>1.273361385242481</v>
+        <v>1.281283015418893</v>
       </c>
       <c r="L11">
-        <v>0.06524894188400054</v>
+        <v>0.21611562633489</v>
       </c>
       <c r="M11">
-        <v>0.2338680995375846</v>
+        <v>0.3675687559826208</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.50376810527402</v>
+        <v>1.809925905342936</v>
       </c>
       <c r="C12">
-        <v>0.102001909147134</v>
+        <v>0.02236297684788724</v>
       </c>
       <c r="D12">
-        <v>0.1928283238125061</v>
+        <v>0.05222763200272595</v>
       </c>
       <c r="E12">
-        <v>0.01596957949699185</v>
+        <v>0.06224852647133305</v>
       </c>
       <c r="F12">
-        <v>11.46982284491833</v>
+        <v>8.668048006292338</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2409251547557716</v>
+        <v>0.2745040272888701</v>
       </c>
       <c r="K12">
-        <v>1.306908273949716</v>
+        <v>1.285047772409342</v>
       </c>
       <c r="L12">
-        <v>0.06600175781412077</v>
+        <v>0.2156648027488615</v>
       </c>
       <c r="M12">
-        <v>0.2390014440144483</v>
+        <v>0.3677310434028165</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.49617736855393</v>
+        <v>1.809186788744796</v>
       </c>
       <c r="C13">
-        <v>0.1013520163900097</v>
+        <v>0.02223745008178923</v>
       </c>
       <c r="D13">
-        <v>0.1918078457727717</v>
+        <v>0.05196371470429995</v>
       </c>
       <c r="E13">
-        <v>0.0159839682668883</v>
+        <v>0.062267032611107</v>
       </c>
       <c r="F13">
-        <v>11.42153350887457</v>
+        <v>8.654632986926401</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2402243200401415</v>
+        <v>0.2742970058711549</v>
       </c>
       <c r="K13">
-        <v>1.299652578227352</v>
+        <v>1.284229887053016</v>
       </c>
       <c r="L13">
-        <v>0.06583778471627966</v>
+        <v>0.215761018257389</v>
       </c>
       <c r="M13">
-        <v>0.2378903706989917</v>
+        <v>0.3676943933480743</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.471546862159187</v>
+        <v>1.806809051271358</v>
       </c>
       <c r="C14">
-        <v>0.0992424174654758</v>
+        <v>0.02182857255530735</v>
       </c>
       <c r="D14">
-        <v>0.1884890349719939</v>
+        <v>0.05110293778919583</v>
       </c>
       <c r="E14">
-        <v>0.01603128850551405</v>
+        <v>0.06232776332653156</v>
       </c>
       <c r="F14">
-        <v>11.26448920571153</v>
+        <v>8.610898034335889</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2379450540844488</v>
+        <v>0.273621743416939</v>
       </c>
       <c r="K14">
-        <v>1.27610757502427</v>
+        <v>1.281589555407407</v>
       </c>
       <c r="L14">
-        <v>0.06531005280468349</v>
+        <v>0.2160781413824537</v>
       </c>
       <c r="M14">
-        <v>0.234287958975397</v>
+        <v>0.3675813420615732</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.456553985043968</v>
+        <v>1.805377729740485</v>
       </c>
       <c r="C15">
-        <v>0.09795761197064223</v>
+        <v>0.02157849968112657</v>
       </c>
       <c r="D15">
-        <v>0.1864630580668347</v>
+        <v>0.05057561887986139</v>
       </c>
       <c r="E15">
-        <v>0.016060576822301</v>
+        <v>0.06236525341612698</v>
       </c>
       <c r="F15">
-        <v>11.1686242506953</v>
+        <v>8.584120073638189</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2365536770816945</v>
+        <v>0.2732080316886965</v>
       </c>
       <c r="K15">
-        <v>1.26177412434609</v>
+        <v>1.27999299463346</v>
       </c>
       <c r="L15">
-        <v>0.06499212434481194</v>
+        <v>0.2162749581448935</v>
       </c>
       <c r="M15">
-        <v>0.2320972764836853</v>
+        <v>0.3675170684862543</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.372010055953893</v>
+        <v>1.797560196240511</v>
       </c>
       <c r="C16">
-        <v>0.09070099593610337</v>
+        <v>0.02015111763624589</v>
       </c>
       <c r="D16">
-        <v>0.1749517763135628</v>
+        <v>0.04755261098659957</v>
       </c>
       <c r="E16">
-        <v>0.01623304635489164</v>
+        <v>0.06258455812071517</v>
       </c>
       <c r="F16">
-        <v>10.62402184347246</v>
+        <v>8.430831956774682</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2286485718474367</v>
+        <v>0.2708357231669751</v>
       </c>
       <c r="K16">
-        <v>1.180925585421221</v>
+        <v>1.271161071702721</v>
       </c>
       <c r="L16">
-        <v>0.06324892559518247</v>
+        <v>0.21744224403907</v>
       </c>
       <c r="M16">
-        <v>0.2197763272583586</v>
+        <v>0.3672249753398482</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.321301845802452</v>
+        <v>1.793107648253596</v>
       </c>
       <c r="C17">
-        <v>0.08633660187717851</v>
+        <v>0.01928044539631912</v>
       </c>
       <c r="D17">
-        <v>0.1679709893659123</v>
+        <v>0.04569694100287336</v>
       </c>
       <c r="E17">
-        <v>0.01634296307989036</v>
+        <v>0.06272308596978249</v>
       </c>
       <c r="F17">
-        <v>10.293877337732</v>
+        <v>8.336939738165938</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2238555010379528</v>
+        <v>0.2693789978016099</v>
       </c>
       <c r="K17">
-        <v>1.132410317271223</v>
+        <v>1.266025869729674</v>
       </c>
       <c r="L17">
-        <v>0.06224680461392751</v>
+        <v>0.2181935255838141</v>
       </c>
       <c r="M17">
-        <v>0.2124145727888411</v>
+        <v>0.3671138112972372</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.292534649877467</v>
+        <v>1.790672767517151</v>
       </c>
       <c r="C18">
-        <v>0.08385562765261056</v>
+        <v>0.01878145171926349</v>
       </c>
       <c r="D18">
-        <v>0.1639828934719816</v>
+        <v>0.04462913738453267</v>
       </c>
       <c r="E18">
-        <v>0.0164076883791533</v>
+        <v>0.06280423360122445</v>
       </c>
       <c r="F18">
-        <v>10.10532654225776</v>
+        <v>8.282987687559626</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2211176934815384</v>
+        <v>0.2685405938360432</v>
       </c>
       <c r="K18">
-        <v>1.104877416094695</v>
+        <v>1.263176101569258</v>
       </c>
       <c r="L18">
-        <v>0.06169401200968139</v>
+        <v>0.2186385846830632</v>
       </c>
       <c r="M18">
-        <v>0.2082483803276318</v>
+        <v>0.367074872906592</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.282860688587107</v>
+        <v>1.789870014279984</v>
       </c>
       <c r="C19">
-        <v>0.08302039568118857</v>
+        <v>0.01861280571770862</v>
       </c>
       <c r="D19">
-        <v>0.1626369959692511</v>
+        <v>0.04426751195460099</v>
       </c>
       <c r="E19">
-        <v>0.01642986095052912</v>
+        <v>0.06283196158679782</v>
       </c>
       <c r="F19">
-        <v>10.04170633446486</v>
+        <v>8.264729329039255</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2201938339549798</v>
+        <v>0.2682566307676524</v>
       </c>
       <c r="K19">
-        <v>1.095616742220074</v>
+        <v>1.262229048527075</v>
       </c>
       <c r="L19">
-        <v>0.06151079773296431</v>
+        <v>0.2187914977587226</v>
       </c>
       <c r="M19">
-        <v>0.2068490927684614</v>
+        <v>0.3670659829732372</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.326657971560991</v>
+        <v>1.793568577180025</v>
       </c>
       <c r="C20">
-        <v>0.08679810527061704</v>
+        <v>0.01937294345638918</v>
       </c>
       <c r="D20">
-        <v>0.1687112455431077</v>
+        <v>0.04589452794172644</v>
       </c>
       <c r="E20">
-        <v>0.01633110643442803</v>
+        <v>0.06270818736912709</v>
       </c>
       <c r="F20">
-        <v>10.32888068341498</v>
+        <v>8.346929291915018</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2243637237628846</v>
+        <v>0.2695341234583353</v>
       </c>
       <c r="K20">
-        <v>1.137535802205633</v>
+        <v>1.266561769006671</v>
       </c>
       <c r="L20">
-        <v>0.06235101504271512</v>
+        <v>0.2181122111773348</v>
       </c>
       <c r="M20">
-        <v>0.2131911048635828</v>
+        <v>0.3671230575052995</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.478761680809953</v>
+        <v>1.807502216987473</v>
       </c>
       <c r="C21">
-        <v>0.09986050131175261</v>
+        <v>0.0219485911478472</v>
       </c>
       <c r="D21">
-        <v>0.1894623973615808</v>
+        <v>0.05135578278006392</v>
       </c>
       <c r="E21">
-        <v>0.01601732614925844</v>
+        <v>0.06230986466413402</v>
       </c>
       <c r="F21">
-        <v>11.31054761544056</v>
+        <v>8.623741760012706</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2386135314661288</v>
+        <v>0.2738201038253791</v>
       </c>
       <c r="K21">
-        <v>1.283004697142985</v>
+        <v>1.282360766500204</v>
       </c>
       <c r="L21">
-        <v>0.06546394419795121</v>
+        <v>0.2159844591645523</v>
       </c>
       <c r="M21">
-        <v>0.2353427349635275</v>
+        <v>0.3676135114715748</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.58230592967621</v>
+        <v>1.817732473885201</v>
       </c>
       <c r="C22">
-        <v>0.108720402677406</v>
+        <v>0.02364867535365534</v>
       </c>
       <c r="D22">
-        <v>0.2033254410303016</v>
+        <v>0.05492184768651498</v>
       </c>
       <c r="E22">
-        <v>0.01582580793344324</v>
+        <v>0.06206256066765459</v>
       </c>
       <c r="F22">
-        <v>11.96654885272989</v>
+        <v>8.805142461588048</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2481340218613823</v>
+        <v>0.2766169718092186</v>
       </c>
       <c r="K22">
-        <v>1.381968140994587</v>
+        <v>1.29361336980881</v>
       </c>
       <c r="L22">
-        <v>0.06773355566730999</v>
+        <v>0.2147088897312699</v>
       </c>
       <c r="M22">
-        <v>0.250520093027724</v>
+        <v>0.3681566603737991</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.526633487271141</v>
+        <v>1.812169519645181</v>
       </c>
       <c r="C23">
-        <v>0.1039589162650714</v>
+        <v>0.02273973809657548</v>
       </c>
       <c r="D23">
-        <v>0.1958958196230896</v>
+        <v>0.05301881345295101</v>
       </c>
       <c r="E23">
-        <v>0.01592677582738</v>
+        <v>0.06219336313932811</v>
       </c>
       <c r="F23">
-        <v>11.61497885669286</v>
+        <v>8.708279776794654</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2430318073793671</v>
+        <v>0.2751245975259664</v>
       </c>
       <c r="K23">
-        <v>1.328763115081074</v>
+        <v>1.287522712131334</v>
       </c>
       <c r="L23">
-        <v>0.0664994012814546</v>
+        <v>0.2153791687733317</v>
       </c>
       <c r="M23">
-        <v>0.2423507118714134</v>
+        <v>0.3678464030391595</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.324235272141863</v>
+        <v>1.793359802020149</v>
       </c>
       <c r="C24">
-        <v>0.08658937248326026</v>
+        <v>0.01933112021048089</v>
       </c>
       <c r="D24">
-        <v>0.1683764977085076</v>
+        <v>0.04580520187191439</v>
       </c>
       <c r="E24">
-        <v>0.01633646205136907</v>
+        <v>0.06271491833438692</v>
       </c>
       <c r="F24">
-        <v>10.31305179240198</v>
+        <v>8.342412928184785</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2241339012506316</v>
+        <v>0.2694639940007661</v>
       </c>
       <c r="K24">
-        <v>1.135217457865451</v>
+        <v>1.266319169603662</v>
       </c>
       <c r="L24">
-        <v>0.06230382907317278</v>
+        <v>0.2181489324969661</v>
       </c>
       <c r="M24">
-        <v>0.2128398295734435</v>
+        <v>0.3671187995112746</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.120908764177784</v>
+        <v>1.777891274930028</v>
       </c>
       <c r="C25">
-        <v>0.06894767475233721</v>
+        <v>0.01572249728007336</v>
       </c>
       <c r="D25">
-        <v>0.1397005664950655</v>
+        <v>0.03800550784993106</v>
       </c>
       <c r="E25">
-        <v>0.01683582018000118</v>
+        <v>0.06333374616470433</v>
       </c>
       <c r="F25">
-        <v>8.958817429954365</v>
+        <v>7.949750310324447</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2044605589245521</v>
+        <v>0.2633373910601122</v>
       </c>
       <c r="K25">
-        <v>0.9404092879317716</v>
+        <v>1.24741735091763</v>
       </c>
       <c r="L25">
-        <v>0.05866969208333828</v>
+        <v>0.2216314970001747</v>
       </c>
       <c r="M25">
-        <v>0.1835700888686915</v>
+        <v>0.3672897833950657</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_118/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_118/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.770638372978055</v>
+        <v>0.9814323265993892</v>
       </c>
       <c r="C2">
-        <v>0.01311926495731797</v>
+        <v>0.05662153706636275</v>
       </c>
       <c r="D2">
-        <v>0.03223974428588861</v>
+        <v>0.1191762311485718</v>
       </c>
       <c r="E2">
-        <v>0.06383820745116875</v>
+        <v>0.01725228842270621</v>
       </c>
       <c r="F2">
-        <v>7.662150779775487</v>
+        <v>7.993232552691978</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2588048803500271</v>
+        <v>0.1904116356513654</v>
       </c>
       <c r="K2">
-        <v>1.236897356269907</v>
+        <v>0.8063436306700567</v>
       </c>
       <c r="L2">
-        <v>0.2246228339346352</v>
+        <v>0.05664783728218481</v>
       </c>
       <c r="M2">
-        <v>0.3682373811667894</v>
+        <v>0.1637968202064464</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.768299610546876</v>
+        <v>0.8921592152436801</v>
       </c>
       <c r="C3">
-        <v>0.01138622289478519</v>
+        <v>0.04856511882881875</v>
       </c>
       <c r="D3">
-        <v>0.02831459372016809</v>
+        <v>0.105515162632571</v>
       </c>
       <c r="E3">
-        <v>0.06421076739112808</v>
+        <v>0.01756474225991056</v>
       </c>
       <c r="F3">
-        <v>7.468097427213934</v>
+        <v>7.353557743527574</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2557179444048998</v>
+        <v>0.1810877224083782</v>
       </c>
       <c r="K3">
-        <v>1.231879661895604</v>
+        <v>0.7202130274487502</v>
       </c>
       <c r="L3">
-        <v>0.226917329774956</v>
+        <v>0.05563778392193441</v>
       </c>
       <c r="M3">
-        <v>0.3693921511879665</v>
+        <v>0.1513244560208804</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.768133792704674</v>
+        <v>0.8396077783806675</v>
       </c>
       <c r="C4">
-        <v>0.01033676375431725</v>
+        <v>0.04373146348721235</v>
       </c>
       <c r="D4">
-        <v>0.02589476758429043</v>
+        <v>0.09721483957752497</v>
       </c>
       <c r="E4">
-        <v>0.06445473036807403</v>
+        <v>0.01777143385660773</v>
       </c>
       <c r="F4">
-        <v>7.349342984866212</v>
+        <v>6.966605590566814</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2538144995236209</v>
+        <v>0.1754381574587498</v>
       </c>
       <c r="K4">
-        <v>1.229838432415775</v>
+        <v>0.6693365447843007</v>
       </c>
       <c r="L4">
-        <v>0.2284582534633905</v>
+        <v>0.05518146322105011</v>
       </c>
       <c r="M4">
-        <v>0.3703540916250638</v>
+        <v>0.144071824012542</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.768385646666701</v>
+        <v>0.8187174397169485</v>
       </c>
       <c r="C5">
-        <v>0.0099126790523556</v>
+        <v>0.04178561968529948</v>
       </c>
       <c r="D5">
-        <v>0.02490607137514189</v>
+        <v>0.09384968842184094</v>
       </c>
       <c r="E5">
-        <v>0.06455798277131741</v>
+        <v>0.01785938780902985</v>
       </c>
       <c r="F5">
-        <v>7.301045931886136</v>
+        <v>6.810185594332609</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2530367374713052</v>
+        <v>0.1731519045655716</v>
       </c>
       <c r="K5">
-        <v>1.229267871343922</v>
+        <v>0.6490653199364829</v>
       </c>
       <c r="L5">
-        <v>0.2291194510684456</v>
+        <v>0.05503484849812779</v>
       </c>
       <c r="M5">
-        <v>0.3708097158614052</v>
+        <v>0.1412112115676649</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.768446760421824</v>
+        <v>0.815279087294158</v>
       </c>
       <c r="C6">
-        <v>0.009842473273252494</v>
+        <v>0.04146383325976188</v>
       </c>
       <c r="D6">
-        <v>0.02474173811978631</v>
+        <v>0.09329182043694573</v>
       </c>
       <c r="E6">
-        <v>0.06457535973083672</v>
+        <v>0.01787421732339789</v>
       </c>
       <c r="F6">
-        <v>7.293031974943716</v>
+        <v>6.784283222786144</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2529074623056289</v>
+        <v>0.1727731575436309</v>
       </c>
       <c r="K6">
-        <v>1.229188904547087</v>
+        <v>0.6457259553529013</v>
       </c>
       <c r="L6">
-        <v>0.2292312524360227</v>
+        <v>0.05501282765773752</v>
       </c>
       <c r="M6">
-        <v>0.3708892156880026</v>
+        <v>0.1407417447301214</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.768135895918107</v>
+        <v>0.8393239748657493</v>
       </c>
       <c r="C7">
-        <v>0.01033103004533586</v>
+        <v>0.0437051300304887</v>
       </c>
       <c r="D7">
-        <v>0.02588144438298912</v>
+        <v>0.09716939194394314</v>
       </c>
       <c r="E7">
-        <v>0.06445610732184548</v>
+        <v>0.01777260495840682</v>
       </c>
       <c r="F7">
-        <v>7.348691247812241</v>
+        <v>6.964491176267813</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2538040189134847</v>
+        <v>0.1754072632550034</v>
       </c>
       <c r="K7">
-        <v>1.22982968004176</v>
+        <v>0.6690613469984896</v>
       </c>
       <c r="L7">
-        <v>0.2284670358859771</v>
+        <v>0.05517932898991873</v>
       </c>
       <c r="M7">
-        <v>0.3703599786753315</v>
+        <v>0.1440328694882886</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.769568343775376</v>
+        <v>0.9501536133204525</v>
       </c>
       <c r="C8">
-        <v>0.01251861243860475</v>
+        <v>0.05381738833487049</v>
       </c>
       <c r="D8">
-        <v>0.03088829371068869</v>
+        <v>0.1144447420479366</v>
       </c>
       <c r="E8">
-        <v>0.06396351591002958</v>
+        <v>0.01735693696560547</v>
       </c>
       <c r="F8">
-        <v>7.595157307588408</v>
+        <v>7.771344376341062</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2577421348041753</v>
+        <v>0.1871792560426044</v>
       </c>
       <c r="K8">
-        <v>1.234951360355609</v>
+        <v>0.7762016349633711</v>
       </c>
       <c r="L8">
-        <v>0.2253865852762011</v>
+        <v>0.0562643913251506</v>
       </c>
       <c r="M8">
-        <v>0.3685830714677429</v>
+        <v>0.1594077623376293</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.782458746692697</v>
+        <v>1.187646321188879</v>
       </c>
       <c r="C9">
-        <v>0.01692939683639594</v>
+        <v>0.07477026742287052</v>
       </c>
       <c r="D9">
-        <v>0.04063595127169606</v>
+        <v>0.1492513313228443</v>
       </c>
       <c r="E9">
-        <v>0.06311773911261653</v>
+        <v>0.01665999551217379</v>
       </c>
       <c r="F9">
-        <v>8.081771553619461</v>
+        <v>9.40938049910352</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2654042491397917</v>
+        <v>0.2110089282652865</v>
       </c>
       <c r="K9">
-        <v>1.25325567135198</v>
+        <v>1.004412916803574</v>
       </c>
       <c r="L9">
-        <v>0.2203921392918602</v>
+        <v>0.05978534344594522</v>
       </c>
       <c r="M9">
-        <v>0.3671045329616156</v>
+        <v>0.1931272562087614</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.798085353570116</v>
+        <v>1.377852123176126</v>
       </c>
       <c r="C10">
-        <v>0.02025071311219051</v>
+        <v>0.09120317193901428</v>
       </c>
       <c r="D10">
-        <v>0.04776429543568383</v>
+        <v>0.1757521926617187</v>
       </c>
       <c r="E10">
-        <v>0.0625689500965958</v>
+        <v>0.01622070840492995</v>
       </c>
       <c r="F10">
-        <v>8.441552870573929</v>
+        <v>10.66188314611125</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2710018749576903</v>
+        <v>0.2291981958704881</v>
       </c>
       <c r="K10">
-        <v>1.27176111505571</v>
+        <v>1.18651374650517</v>
       </c>
       <c r="L10">
-        <v>0.2173582705301769</v>
+        <v>0.06336655223073251</v>
       </c>
       <c r="M10">
-        <v>0.367241047455952</v>
+        <v>0.2206258805257484</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.806533849416496</v>
+        <v>1.468674245411592</v>
       </c>
       <c r="C11">
-        <v>0.02178072871079451</v>
+        <v>0.0989962913645428</v>
       </c>
       <c r="D11">
-        <v>0.05100210241059244</v>
+        <v>0.1881012032834519</v>
       </c>
       <c r="E11">
-        <v>0.06233491532618096</v>
+        <v>0.0160368713541077</v>
       </c>
       <c r="F11">
-        <v>8.60577662053413</v>
+        <v>11.24613760731245</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2735426346901448</v>
+        <v>0.2376787027891751</v>
       </c>
       <c r="K11">
-        <v>1.281283015418893</v>
+        <v>1.273361385242765</v>
       </c>
       <c r="L11">
-        <v>0.21611562633489</v>
+        <v>0.06524894188409291</v>
       </c>
       <c r="M11">
-        <v>0.3675687559826208</v>
+        <v>0.2338680995375562</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.809925905342936</v>
+        <v>1.50376810527402</v>
       </c>
       <c r="C12">
-        <v>0.02236297684788724</v>
+        <v>0.1020019091461535</v>
       </c>
       <c r="D12">
-        <v>0.05222763200272595</v>
+        <v>0.1928283238127335</v>
       </c>
       <c r="E12">
-        <v>0.06224852647133305</v>
+        <v>0.01596957949709799</v>
       </c>
       <c r="F12">
-        <v>8.668048006292338</v>
+        <v>11.46982284491827</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2745040272888701</v>
+        <v>0.2409251547556934</v>
       </c>
       <c r="K12">
-        <v>1.285047772409342</v>
+        <v>1.306908273949546</v>
       </c>
       <c r="L12">
-        <v>0.2156648027488615</v>
+        <v>0.0660017578140355</v>
       </c>
       <c r="M12">
-        <v>0.3677310434028165</v>
+        <v>0.2390014440144377</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.809186788744796</v>
+        <v>1.496177368553816</v>
       </c>
       <c r="C13">
-        <v>0.02223745008178923</v>
+        <v>0.1013520163891002</v>
       </c>
       <c r="D13">
-        <v>0.05196371470429995</v>
+        <v>0.1918078457726011</v>
       </c>
       <c r="E13">
-        <v>0.062267032611107</v>
+        <v>0.01598396826680037</v>
       </c>
       <c r="F13">
-        <v>8.654632986926401</v>
+        <v>11.4215335088744</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2742970058711549</v>
+        <v>0.2402243200400704</v>
       </c>
       <c r="K13">
-        <v>1.284229887053016</v>
+        <v>1.299652578227523</v>
       </c>
       <c r="L13">
-        <v>0.215761018257389</v>
+        <v>0.0658377847163365</v>
       </c>
       <c r="M13">
-        <v>0.3676943933480743</v>
+        <v>0.2378903706989597</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.806809051271358</v>
+        <v>1.471546862159016</v>
       </c>
       <c r="C14">
-        <v>0.02182857255530735</v>
+        <v>0.09924241746540474</v>
       </c>
       <c r="D14">
-        <v>0.05110293778919583</v>
+        <v>0.1884890349718944</v>
       </c>
       <c r="E14">
-        <v>0.06232776332653156</v>
+        <v>0.01603128850540791</v>
       </c>
       <c r="F14">
-        <v>8.610898034335889</v>
+        <v>11.2644892057117</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.273621743416939</v>
+        <v>0.2379450540842285</v>
       </c>
       <c r="K14">
-        <v>1.281589555407407</v>
+        <v>1.276107575024014</v>
       </c>
       <c r="L14">
-        <v>0.2160781413824537</v>
+        <v>0.06531005280444191</v>
       </c>
       <c r="M14">
-        <v>0.3675813420615732</v>
+        <v>0.2342879589754041</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.805377729740485</v>
+        <v>1.45655398504357</v>
       </c>
       <c r="C15">
-        <v>0.02157849968112657</v>
+        <v>0.09795761197018749</v>
       </c>
       <c r="D15">
-        <v>0.05057561887986139</v>
+        <v>0.18646305806665</v>
       </c>
       <c r="E15">
-        <v>0.06236525341612698</v>
+        <v>0.01606057682237783</v>
       </c>
       <c r="F15">
-        <v>8.584120073638189</v>
+        <v>11.16862425069519</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2732080316886965</v>
+        <v>0.2365536770814458</v>
       </c>
       <c r="K15">
-        <v>1.27999299463346</v>
+        <v>1.261774124346204</v>
       </c>
       <c r="L15">
-        <v>0.2162749581448935</v>
+        <v>0.06499212434456325</v>
       </c>
       <c r="M15">
-        <v>0.3675170684862543</v>
+        <v>0.2320972764836959</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.797560196240511</v>
+        <v>1.372010055953268</v>
       </c>
       <c r="C16">
-        <v>0.02015111763624589</v>
+        <v>0.09070099593517966</v>
       </c>
       <c r="D16">
-        <v>0.04755261098659957</v>
+        <v>0.1749517763131365</v>
       </c>
       <c r="E16">
-        <v>0.06258455812071517</v>
+        <v>0.01623304635490763</v>
       </c>
       <c r="F16">
-        <v>8.430831956774682</v>
+        <v>10.62402184347246</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2708357231669751</v>
+        <v>0.2286485718474012</v>
       </c>
       <c r="K16">
-        <v>1.271161071702721</v>
+        <v>1.180925585421306</v>
       </c>
       <c r="L16">
-        <v>0.21744224403907</v>
+        <v>0.06324892559480588</v>
       </c>
       <c r="M16">
-        <v>0.3672249753398482</v>
+        <v>0.2197763272583479</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.793107648253596</v>
+        <v>1.321301845802338</v>
       </c>
       <c r="C17">
-        <v>0.01928044539631912</v>
+        <v>0.08633660187715009</v>
       </c>
       <c r="D17">
-        <v>0.04569694100287336</v>
+        <v>0.167970989365628</v>
       </c>
       <c r="E17">
-        <v>0.06272308596978249</v>
+        <v>0.01634296307992322</v>
       </c>
       <c r="F17">
-        <v>8.336939738165938</v>
+        <v>10.293877337732</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2693789978016099</v>
+        <v>0.2238555010381731</v>
       </c>
       <c r="K17">
-        <v>1.266025869729674</v>
+        <v>1.132410317271081</v>
       </c>
       <c r="L17">
-        <v>0.2181935255838141</v>
+        <v>0.06224680461414778</v>
       </c>
       <c r="M17">
-        <v>0.3671138112972372</v>
+        <v>0.2124145727888589</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.790672767517151</v>
+        <v>1.292534649877098</v>
       </c>
       <c r="C18">
-        <v>0.01878145171926349</v>
+        <v>0.08385562765251109</v>
       </c>
       <c r="D18">
-        <v>0.04462913738453267</v>
+        <v>0.1639828934718537</v>
       </c>
       <c r="E18">
-        <v>0.06280423360122445</v>
+        <v>0.01640768837911422</v>
       </c>
       <c r="F18">
-        <v>8.282987687559626</v>
+        <v>10.10532654225781</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2685405938360432</v>
+        <v>0.221117693481574</v>
       </c>
       <c r="K18">
-        <v>1.263176101569258</v>
+        <v>1.104877416094638</v>
       </c>
       <c r="L18">
-        <v>0.2186385846830632</v>
+        <v>0.0616940120097027</v>
       </c>
       <c r="M18">
-        <v>0.367074872906592</v>
+        <v>0.2082483803275892</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.789870014279984</v>
+        <v>1.282860688587107</v>
       </c>
       <c r="C19">
-        <v>0.01861280571770862</v>
+        <v>0.08302039568168595</v>
       </c>
       <c r="D19">
-        <v>0.04426751195460099</v>
+        <v>0.1626369959690095</v>
       </c>
       <c r="E19">
-        <v>0.06283196158679782</v>
+        <v>0.01642986095052734</v>
       </c>
       <c r="F19">
-        <v>8.264729329039255</v>
+        <v>10.04170633446489</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2682566307676524</v>
+        <v>0.2201938339550864</v>
       </c>
       <c r="K19">
-        <v>1.262229048527075</v>
+        <v>1.095616742220102</v>
       </c>
       <c r="L19">
-        <v>0.2187914977587226</v>
+        <v>0.06151079773307799</v>
       </c>
       <c r="M19">
-        <v>0.3670659829732372</v>
+        <v>0.206849092768433</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.793568577180025</v>
+        <v>1.326657971560621</v>
       </c>
       <c r="C20">
-        <v>0.01937294345638918</v>
+        <v>0.08679810527100074</v>
       </c>
       <c r="D20">
-        <v>0.04589452794172644</v>
+        <v>0.1687112455430366</v>
       </c>
       <c r="E20">
-        <v>0.06270818736912709</v>
+        <v>0.01633110643432678</v>
       </c>
       <c r="F20">
-        <v>8.346929291915018</v>
+        <v>10.32888068341504</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2695341234583353</v>
+        <v>0.2243637237630196</v>
       </c>
       <c r="K20">
-        <v>1.266561769006671</v>
+        <v>1.137535802205718</v>
       </c>
       <c r="L20">
-        <v>0.2181122111773348</v>
+        <v>0.06235101504248064</v>
       </c>
       <c r="M20">
-        <v>0.3671230575052995</v>
+        <v>0.2131911048635722</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.807502216987473</v>
+        <v>1.478761680810038</v>
       </c>
       <c r="C21">
-        <v>0.0219485911478472</v>
+        <v>0.09986050131217894</v>
       </c>
       <c r="D21">
-        <v>0.05135578278006392</v>
+        <v>0.1894623973617229</v>
       </c>
       <c r="E21">
-        <v>0.06230986466413402</v>
+        <v>0.01601732614927931</v>
       </c>
       <c r="F21">
-        <v>8.623741760012706</v>
+        <v>11.31054761544067</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2738201038253791</v>
+        <v>0.2386135314661431</v>
       </c>
       <c r="K21">
-        <v>1.282360766500204</v>
+        <v>1.283004697142957</v>
       </c>
       <c r="L21">
-        <v>0.2159844591645523</v>
+        <v>0.06546394419785884</v>
       </c>
       <c r="M21">
-        <v>0.3676135114715748</v>
+        <v>0.2353427349635133</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.817732473885201</v>
+        <v>1.582305929675925</v>
       </c>
       <c r="C22">
-        <v>0.02364867535365534</v>
+        <v>0.1087204026778181</v>
       </c>
       <c r="D22">
-        <v>0.05492184768651498</v>
+        <v>0.2033254410300316</v>
       </c>
       <c r="E22">
-        <v>0.06206256066765459</v>
+        <v>0.01582580793348631</v>
       </c>
       <c r="F22">
-        <v>8.805142461588048</v>
+        <v>11.96654885272994</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2766169718092186</v>
+        <v>0.2481340218615529</v>
       </c>
       <c r="K22">
-        <v>1.29361336980881</v>
+        <v>1.381968140994701</v>
       </c>
       <c r="L22">
-        <v>0.2147088897312699</v>
+        <v>0.06773355566721762</v>
       </c>
       <c r="M22">
-        <v>0.3681566603737991</v>
+        <v>0.2505200930277667</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.812169519645181</v>
+        <v>1.526633487271027</v>
       </c>
       <c r="C23">
-        <v>0.02273973809657548</v>
+        <v>0.1039589162650003</v>
       </c>
       <c r="D23">
-        <v>0.05301881345295101</v>
+        <v>0.1958958196235301</v>
       </c>
       <c r="E23">
-        <v>0.06219336313932811</v>
+        <v>0.01592677582736401</v>
       </c>
       <c r="F23">
-        <v>8.708279776794654</v>
+        <v>11.61497885669291</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2751245975259664</v>
+        <v>0.243031807379495</v>
       </c>
       <c r="K23">
-        <v>1.287522712131334</v>
+        <v>1.328763115080989</v>
       </c>
       <c r="L23">
-        <v>0.2153791687733317</v>
+        <v>0.0664994012814546</v>
       </c>
       <c r="M23">
-        <v>0.3678464030391595</v>
+        <v>0.2423507118713708</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.793359802020149</v>
+        <v>1.32423527214209</v>
       </c>
       <c r="C24">
-        <v>0.01933112021048089</v>
+        <v>0.0865893724842266</v>
       </c>
       <c r="D24">
-        <v>0.04580520187191439</v>
+        <v>0.1683764977089623</v>
       </c>
       <c r="E24">
-        <v>0.06271491833438692</v>
+        <v>0.01633646205136907</v>
       </c>
       <c r="F24">
-        <v>8.342412928184785</v>
+        <v>10.31305179240201</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2694639940007661</v>
+        <v>0.2241339012504895</v>
       </c>
       <c r="K24">
-        <v>1.266319169603662</v>
+        <v>1.135217457865451</v>
       </c>
       <c r="L24">
-        <v>0.2181489324969661</v>
+        <v>0.0623038290730733</v>
       </c>
       <c r="M24">
-        <v>0.3671187995112746</v>
+        <v>0.2128398295734222</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.777891274930028</v>
+        <v>1.120908764178154</v>
       </c>
       <c r="C25">
-        <v>0.01572249728007336</v>
+        <v>0.06894767475334618</v>
       </c>
       <c r="D25">
-        <v>0.03800550784993106</v>
+        <v>0.1397005664948807</v>
       </c>
       <c r="E25">
-        <v>0.06333374616470433</v>
+        <v>0.01683582018002294</v>
       </c>
       <c r="F25">
-        <v>7.949750310324447</v>
+        <v>8.95881742995428</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2633373910601122</v>
+        <v>0.2044605589243318</v>
       </c>
       <c r="K25">
-        <v>1.24741735091763</v>
+        <v>0.9404092879318284</v>
       </c>
       <c r="L25">
-        <v>0.2216314970001747</v>
+        <v>0.05866969208348749</v>
       </c>
       <c r="M25">
-        <v>0.3672897833950657</v>
+        <v>0.1835700888686809</v>
       </c>
       <c r="N25">
         <v>0</v>
